--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_16_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_16_23.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>350915.2040999453</v>
+        <v>364641.5622373637</v>
       </c>
     </row>
     <row r="7">
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>471083.894762297</v>
+        <v>471083.8947622971</v>
       </c>
       <c r="C2" t="n">
         <v>471083.894762297</v>
       </c>
       <c r="D2" t="n">
-        <v>471083.8947622969</v>
+        <v>471083.894762297</v>
       </c>
       <c r="E2" t="n">
         <v>131468.6303723431</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>430898.5094426759</v>
       </c>
       <c r="E4" t="n">
-        <v>50967.55200287979</v>
+        <v>50967.5520028798</v>
       </c>
       <c r="F4" t="n">
-        <v>50967.55200287979</v>
+        <v>50967.5520028798</v>
       </c>
       <c r="G4" t="n">
-        <v>50967.55200287979</v>
+        <v>50967.5520028798</v>
       </c>
       <c r="H4" t="n">
-        <v>50967.55200287979</v>
+        <v>50967.5520028798</v>
       </c>
       <c r="I4" t="n">
-        <v>50967.55200287979</v>
+        <v>50967.5520028798</v>
       </c>
       <c r="J4" t="n">
-        <v>50967.55200287979</v>
+        <v>50967.5520028798</v>
       </c>
       <c r="K4" t="n">
-        <v>50967.55200287979</v>
+        <v>50967.5520028798</v>
       </c>
       <c r="L4" t="n">
-        <v>50967.55200287979</v>
+        <v>50967.5520028798</v>
       </c>
       <c r="M4" t="n">
-        <v>50967.55200287979</v>
+        <v>50967.5520028798</v>
       </c>
       <c r="N4" t="n">
-        <v>50967.55200287979</v>
+        <v>50967.5520028798</v>
       </c>
       <c r="O4" t="n">
-        <v>50967.55200287979</v>
+        <v>50967.5520028798</v>
       </c>
       <c r="P4" t="n">
-        <v>50967.55200287979</v>
+        <v>50967.5520028798</v>
       </c>
     </row>
     <row r="5">
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6557.785319621151</v>
+        <v>6557.785319621245</v>
       </c>
       <c r="C6" t="n">
-        <v>6557.785319621151</v>
+        <v>6557.785319621187</v>
       </c>
       <c r="D6" t="n">
-        <v>6557.785319621093</v>
+        <v>6557.785319621187</v>
       </c>
       <c r="E6" t="n">
-        <v>-56210.533735545</v>
+        <v>-56210.53373554506</v>
       </c>
       <c r="F6" t="n">
         <v>76889.46626445501</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_16_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_16_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>364641.5622373637</v>
+        <v>280856.1604757389</v>
       </c>
     </row>
     <row r="7">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>471083.8947622972</v>
+      </c>
+      <c r="C2" t="n">
         <v>471083.8947622971</v>
       </c>
-      <c r="C2" t="n">
-        <v>471083.894762297</v>
-      </c>
       <c r="D2" t="n">
-        <v>471083.894762297</v>
+        <v>471083.8947622971</v>
       </c>
       <c r="E2" t="n">
         <v>131468.6303723431</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6557.785319621245</v>
+        <v>6513.64954094018</v>
       </c>
       <c r="C6" t="n">
-        <v>6557.785319621187</v>
+        <v>6513.649540940121</v>
       </c>
       <c r="D6" t="n">
-        <v>6557.785319621187</v>
+        <v>6513.649540940121</v>
       </c>
       <c r="E6" t="n">
-        <v>-56210.53373554506</v>
+        <v>-71020.55057465896</v>
       </c>
       <c r="F6" t="n">
-        <v>76889.46626445501</v>
+        <v>62079.44942534111</v>
       </c>
       <c r="G6" t="n">
-        <v>76889.46626445501</v>
+        <v>62079.44942534111</v>
       </c>
       <c r="H6" t="n">
-        <v>76889.46626445501</v>
+        <v>62079.44942534111</v>
       </c>
       <c r="I6" t="n">
-        <v>76889.46626445501</v>
+        <v>62079.44942534111</v>
       </c>
       <c r="J6" t="n">
-        <v>76889.46626445501</v>
+        <v>62079.44942534111</v>
       </c>
       <c r="K6" t="n">
-        <v>76889.46626445501</v>
+        <v>62079.44942534111</v>
       </c>
       <c r="L6" t="n">
-        <v>76889.46626445501</v>
+        <v>62079.44942534111</v>
       </c>
       <c r="M6" t="n">
-        <v>76889.46626445501</v>
+        <v>62079.44942534111</v>
       </c>
       <c r="N6" t="n">
-        <v>76889.46626445501</v>
+        <v>62079.44942534111</v>
       </c>
       <c r="O6" t="n">
-        <v>76889.46626445501</v>
+        <v>62079.44942534111</v>
       </c>
       <c r="P6" t="n">
-        <v>76889.46626445501</v>
+        <v>62079.44942534111</v>
       </c>
     </row>
   </sheetData>
